--- a/data/evaluation/evaluation_South_Spring_Lemons.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Lemons.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>881.0828352624181</v>
+        <v>878.2751313314008</v>
       </c>
       <c r="C4" t="n">
-        <v>1793051.156125529</v>
+        <v>1806446.552657303</v>
       </c>
       <c r="D4" t="n">
-        <v>1339.048601106595</v>
+        <v>1344.041127591453</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04519229978234629</v>
+        <v>0.0380591916653179</v>
       </c>
     </row>
     <row r="5">
